--- a/INTC/INTC.xlsx
+++ b/INTC/INTC.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/INTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_11FDB94BBCBF8DFA846EFA3D1C4F49E11DA9A498" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8E72EE3-4D9C-44FF-8C40-5D58C4E45490}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="11_11FDB94BBCBF8DFA846EFA3D1C4F49E11DA9A498" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8056C3D3-2CF5-406A-8A98-E50D8DD8C306}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Income Statement" sheetId="5" r:id="rId5"/>
-    <sheet name="Balance Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Cash Flow" sheetId="7" r:id="rId7"/>
+    <sheet name="New Model" sheetId="8" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Income Statement" sheetId="5" r:id="rId6"/>
+    <sheet name="Balance Sheet" sheetId="6" r:id="rId7"/>
+    <sheet name="Cash Flow" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -260,9 +261,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
@@ -287,6 +289,20 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </cellMetadata>
   <valueMetadata count="3">
     <bk>
       <rc t="1" v="0"/>
@@ -302,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4932" uniqueCount="2712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="2805">
   <si>
     <t>Price</t>
   </si>
@@ -8438,6 +8454,285 @@
   </si>
   <si>
     <t>9,662</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t>Period Of Report</t>
+  </si>
+  <si>
+    <t>Income Statement *in millions, USD</t>
+  </si>
+  <si>
+    <t>MG&amp;A</t>
+  </si>
+  <si>
+    <t>Restructuring &amp; Other</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Gains on equity investment</t>
+  </si>
+  <si>
+    <t>Income before taxes</t>
+  </si>
+  <si>
+    <t>Less: Noncontrolling interests</t>
+  </si>
+  <si>
+    <t>Net Income, including non-controlling interests</t>
+  </si>
+  <si>
+    <t>Taxes (benefit)</t>
+  </si>
+  <si>
+    <t>Segments *in millions, USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Income </t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Data Center &amp; AI</t>
+  </si>
+  <si>
+    <t>Network &amp; Edge</t>
+  </si>
+  <si>
+    <t>MobileEye</t>
+  </si>
+  <si>
+    <t>Foundry</t>
+  </si>
+  <si>
+    <t>Geographic</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Other regions</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Total Mix %</t>
+  </si>
+  <si>
+    <t>Market Shares *in millions, USD</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel %</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>Total PC Shipments *in millions, units</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel's business success seems to be a function of 'Global PC Shipments' increasing, while retaining or gaining marketshare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundry business could bring new revenue. </t>
+  </si>
+  <si>
+    <t>Foundrys</t>
+  </si>
+  <si>
+    <t>Fab 9</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Chipsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Only U.S. high-volume advanced packaging site to date. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Fab 34</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>New Mexico, USA</t>
+  </si>
+  <si>
+    <t>Fab 11x</t>
+  </si>
+  <si>
+    <t>Fab 38</t>
+  </si>
+  <si>
+    <t>Kiryat Gat, Israel</t>
+  </si>
+  <si>
+    <t>Cost *$b</t>
+  </si>
+  <si>
+    <t>Foundries</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Aloha, Oregon, USA</t>
+  </si>
+  <si>
+    <t>Belen, Costa Rica</t>
+  </si>
+  <si>
+    <t>Chandler, Arizona, USA</t>
+  </si>
+  <si>
+    <t>Folsom, Folsom, USA</t>
+  </si>
+  <si>
+    <t>Ocotillo, Arizona, USA</t>
+  </si>
+  <si>
+    <t>Rio Rancho, New Mexico, USA</t>
+  </si>
+  <si>
+    <t>Ronler Acres, Oregon, USA</t>
+  </si>
+  <si>
+    <t>Santa Clara, California, USA</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Bangalore, India</t>
+  </si>
+  <si>
+    <t>Chengdu, China</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City, Vietnam</t>
+  </si>
+  <si>
+    <t>Kulim, Malaysia</t>
+  </si>
+  <si>
+    <t>Penang, Malaysia</t>
+  </si>
+  <si>
+    <t>Europe &amp; Middle East</t>
+  </si>
+  <si>
+    <t>Qirat Gat Israel</t>
+  </si>
+  <si>
+    <t>Leixlip, Ireland</t>
+  </si>
+  <si>
+    <t>Cost $billions</t>
+  </si>
+  <si>
+    <t>Fab 12</t>
+  </si>
+  <si>
+    <t>Fab 22</t>
+  </si>
+  <si>
+    <t>AFO</t>
+  </si>
+  <si>
+    <t>Hillsboro, Oregon, USA</t>
+  </si>
+  <si>
+    <t>D1B</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>D1C</t>
+  </si>
+  <si>
+    <t>RP1</t>
+  </si>
+  <si>
+    <t>D1D</t>
+  </si>
+  <si>
+    <t>D1X</t>
+  </si>
+  <si>
+    <t>300mm</t>
+  </si>
+  <si>
+    <t>10nm</t>
+  </si>
+  <si>
+    <t>Fab 28</t>
+  </si>
+  <si>
+    <t>Fab 24</t>
+  </si>
+  <si>
+    <t>14nm</t>
+  </si>
+  <si>
+    <t>7nm</t>
+  </si>
+  <si>
+    <t>22nm</t>
+  </si>
+  <si>
+    <t>Fab 42</t>
+  </si>
+  <si>
+    <t>Fab 52</t>
+  </si>
+  <si>
+    <t>Fab 62</t>
+  </si>
+  <si>
+    <t>5nm</t>
+  </si>
+  <si>
+    <t>Intel 20A</t>
   </si>
 </sst>
 </file>
@@ -8448,7 +8743,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8488,6 +8783,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="11"/>
@@ -8564,7 +8874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8597,6 +8907,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9006,6 +9337,35 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8E5E9687-097B-4ED8-B828-643F39321134}">
+  <we:reference id="wa200002252" version="1.0.0.3" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200002252" version="1.0.0.3" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_WISE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_WISEPRICE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_WISEFUNDS</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
@@ -9086,13 +9446,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="8.7265625" style="42"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -9100,7 +9465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -9108,7 +9473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -9116,7 +9481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9124,12 +9489,417 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C18" s="41">
+        <v>45292</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C25">
+        <v>1976</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C27">
+        <v>2006</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C28">
+        <v>2002</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C29">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C30">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>2804</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C31">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>2804</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C33">
+        <v>1996</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C34">
+        <v>2001</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C35">
+        <v>2003</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C36">
+        <v>2013</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C37">
+        <v>2001</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C38">
+        <v>2001</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D44" s="44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D50" s="44"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C51">
+        <v>2024</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C52">
+        <v>2023</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C53">
+        <v>2023</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C54">
+        <v>2006</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2781</v>
       </c>
     </row>
   </sheetData>
@@ -9141,11 +9911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AG94" sqref="AG94"/>
+      <selection pane="bottomRight" activeCell="W165" sqref="W165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21075,6 +21845,2690 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDB68E6-CA15-4535-987A-E5FD881C90BE}">
+  <dimension ref="B1:Z90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="14" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B1" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E2">
+        <f>F2-1</f>
+        <v>2005</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:M2" si="0">G2-1</f>
+        <v>2006</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="N2">
+        <f>O2-1</f>
+        <v>2014</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:U2" si="1">P2-1</f>
+        <v>2015</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="V2">
+        <f>W2-1</f>
+        <v>2022</v>
+      </c>
+      <c r="W2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3">
+        <v>42048</v>
+      </c>
+      <c r="O4" s="3">
+        <v>42416</v>
+      </c>
+      <c r="P4" s="3">
+        <v>42783</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>43147</v>
+      </c>
+      <c r="R4" s="3">
+        <v>43497</v>
+      </c>
+      <c r="S4" s="3">
+        <v>43854</v>
+      </c>
+      <c r="T4" s="3">
+        <v>44218</v>
+      </c>
+      <c r="U4" s="3">
+        <v>44588</v>
+      </c>
+      <c r="V4" s="3">
+        <v>44953</v>
+      </c>
+      <c r="W4" s="3">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="N8" s="12" cm="1">
+        <f t="array" ref="N8:W10">_xldudf_WISE(B8:B10,"Revenue",N2:W2,,1000000)</f>
+        <v>4130.1620000000003</v>
+      </c>
+      <c r="O8" s="12">
+        <v>4681.5069999999996</v>
+      </c>
+      <c r="P8" s="12">
+        <v>5010</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>6910</v>
+      </c>
+      <c r="R8" s="12">
+        <v>9714</v>
+      </c>
+      <c r="S8" s="12">
+        <v>11716</v>
+      </c>
+      <c r="T8" s="12">
+        <v>10918</v>
+      </c>
+      <c r="U8" s="12">
+        <v>16675</v>
+      </c>
+      <c r="V8" s="12">
+        <v>26914</v>
+      </c>
+      <c r="W8" s="12">
+        <v>26974</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>2742</v>
+      </c>
+      <c r="N9" s="12">
+        <v>5506</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3991</v>
+      </c>
+      <c r="P9" s="12">
+        <v>4319</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>5253</v>
+      </c>
+      <c r="R9" s="12">
+        <v>6475</v>
+      </c>
+      <c r="S9" s="12">
+        <v>6731</v>
+      </c>
+      <c r="T9" s="12">
+        <v>9763</v>
+      </c>
+      <c r="U9" s="12">
+        <v>16434</v>
+      </c>
+      <c r="V9" s="12">
+        <v>23601</v>
+      </c>
+      <c r="W9" s="12">
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="38" t="s">
+        <v>2744</v>
+      </c>
+      <c r="N10" s="12">
+        <v>4269</v>
+      </c>
+      <c r="O10" s="12">
+        <v>6824</v>
+      </c>
+      <c r="P10" s="12">
+        <v>13240</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>17636</v>
+      </c>
+      <c r="R10" s="12">
+        <v>20848</v>
+      </c>
+      <c r="S10" s="12">
+        <v>22597</v>
+      </c>
+      <c r="T10" s="12">
+        <v>23888</v>
+      </c>
+      <c r="U10" s="12">
+        <v>27450</v>
+      </c>
+      <c r="V10" s="12">
+        <v>33203</v>
+      </c>
+      <c r="W10" s="12">
+        <v>35819</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="39"/>
+    </row>
+    <row r="12" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="39"/>
+    </row>
+    <row r="13" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="39"/>
+    </row>
+    <row r="14" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="40" t="s">
+        <v>2743</v>
+      </c>
+      <c r="N14" s="32">
+        <f>N11/SUM(N8:N11)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="32">
+        <f t="shared" ref="O14:W14" si="2">O11/SUM(O8:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F16">
+        <v>239</v>
+      </c>
+      <c r="G16">
+        <v>272</v>
+      </c>
+      <c r="H16">
+        <v>291</v>
+      </c>
+      <c r="I16">
+        <v>308</v>
+      </c>
+      <c r="J16">
+        <v>351</v>
+      </c>
+      <c r="K16">
+        <v>365</v>
+      </c>
+      <c r="L16">
+        <v>351</v>
+      </c>
+      <c r="M16">
+        <v>316</v>
+      </c>
+      <c r="N16">
+        <v>314</v>
+      </c>
+      <c r="O16">
+        <v>288</v>
+      </c>
+      <c r="P16">
+        <v>270</v>
+      </c>
+      <c r="Q16">
+        <v>263</v>
+      </c>
+      <c r="R16">
+        <v>260</v>
+      </c>
+      <c r="S16">
+        <v>263</v>
+      </c>
+      <c r="T16">
+        <v>309</v>
+      </c>
+      <c r="U16">
+        <v>342</v>
+      </c>
+      <c r="V16">
+        <v>284</v>
+      </c>
+      <c r="W16">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="20" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U27" s="12">
+        <v>41081</v>
+      </c>
+      <c r="V27" s="12">
+        <v>31773</v>
+      </c>
+      <c r="W27" s="12">
+        <v>29258</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U28" s="12">
+        <v>15523</v>
+      </c>
+      <c r="V28" s="12">
+        <v>5569</v>
+      </c>
+      <c r="W28" s="12">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G29" s="32" t="e">
+        <f>G28/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="32" t="e">
+        <f t="shared" ref="H29:K29" si="3">H28/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="32" t="e">
+        <f>L28/L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="32" t="e">
+        <f t="shared" ref="M29:V29" si="4">M28/M27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="32">
+        <f t="shared" si="4"/>
+        <v>0.37786324578272196</v>
+      </c>
+      <c r="V29" s="32">
+        <f t="shared" si="4"/>
+        <v>0.17527460422371197</v>
+      </c>
+      <c r="W29" s="32">
+        <f>W28/W27</f>
+        <v>0.2228450338368993</v>
+      </c>
+      <c r="X29" s="32" t="e">
+        <f t="shared" ref="X29:Z29" si="5">X28/X27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="12">
+        <v>22774</v>
+      </c>
+      <c r="V31" s="12">
+        <v>19445</v>
+      </c>
+      <c r="W31" s="12">
+        <v>15521</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U32" s="12">
+        <v>7376</v>
+      </c>
+      <c r="V32" s="12">
+        <v>1300</v>
+      </c>
+      <c r="W32" s="12">
+        <v>-530</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G33" s="32" t="e">
+        <f>G32/G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="32" t="e">
+        <f t="shared" ref="H33" si="6">H32/H31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="32" t="e">
+        <f t="shared" ref="I33" si="7">I32/I31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="32" t="e">
+        <f t="shared" ref="J33" si="8">J32/J31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="32" t="e">
+        <f t="shared" ref="K33" si="9">K32/K31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="32" t="e">
+        <f>L32/L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="32" t="e">
+        <f t="shared" ref="M33" si="10">M32/M31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="32" t="e">
+        <f t="shared" ref="N33" si="11">N32/N31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="32" t="e">
+        <f t="shared" ref="O33" si="12">O32/O31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" s="32" t="e">
+        <f t="shared" ref="P33" si="13">P32/P31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="32" t="e">
+        <f t="shared" ref="Q33" si="14">Q32/Q31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="32" t="e">
+        <f t="shared" ref="R33" si="15">R32/R31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="32" t="e">
+        <f t="shared" ref="S33" si="16">S32/S31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="32" t="e">
+        <f t="shared" ref="T33" si="17">T32/T31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="32">
+        <f t="shared" ref="U33" si="18">U32/U31</f>
+        <v>0.32387810661280408</v>
+      </c>
+      <c r="V33" s="32">
+        <f t="shared" ref="V33" si="19">V32/V31</f>
+        <v>6.6855232707636922E-2</v>
+      </c>
+      <c r="W33" s="32">
+        <f>W32/W31</f>
+        <v>-3.414728432446363E-2</v>
+      </c>
+      <c r="X33" s="32" t="e">
+        <f t="shared" ref="X33" si="20">X32/X31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y33" s="32" t="e">
+        <f t="shared" ref="Y33" si="21">Y32/Y31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z33" s="32" t="e">
+        <f t="shared" ref="Z33" si="22">Z32/Z31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="14" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" s="12">
+        <v>7665</v>
+      </c>
+      <c r="V35" s="12">
+        <v>8409</v>
+      </c>
+      <c r="W35" s="12">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U36" s="12">
+        <v>1935</v>
+      </c>
+      <c r="V36" s="12">
+        <v>1033</v>
+      </c>
+      <c r="W36" s="12">
+        <v>-482</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G37" s="32" t="e">
+        <f>G36/G35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="32" t="e">
+        <f t="shared" ref="H37" si="23">H36/H35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="32" t="e">
+        <f t="shared" ref="I37" si="24">I36/I35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="32" t="e">
+        <f t="shared" ref="J37" si="25">J36/J35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="32" t="e">
+        <f t="shared" ref="K37" si="26">K36/K35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="32" t="e">
+        <f>L36/L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="32" t="e">
+        <f t="shared" ref="M37" si="27">M36/M35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="32" t="e">
+        <f t="shared" ref="N37" si="28">N36/N35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="32" t="e">
+        <f t="shared" ref="O37" si="29">O36/O35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="32" t="e">
+        <f t="shared" ref="P37" si="30">P36/P35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="32" t="e">
+        <f t="shared" ref="Q37" si="31">Q36/Q35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="32" t="e">
+        <f t="shared" ref="R37" si="32">R36/R35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="32" t="e">
+        <f t="shared" ref="S37" si="33">S36/S35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="32" t="e">
+        <f t="shared" ref="T37" si="34">T36/T35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="32">
+        <f t="shared" ref="U37" si="35">U36/U35</f>
+        <v>0.25244618395303325</v>
+      </c>
+      <c r="V37" s="32">
+        <f t="shared" ref="V37" si="36">V36/V35</f>
+        <v>0.12284457129266263</v>
+      </c>
+      <c r="W37" s="32">
+        <f>W36/W35</f>
+        <v>-8.3477658468998961E-2</v>
+      </c>
+      <c r="X37" s="32" t="e">
+        <f t="shared" ref="X37" si="37">X36/X35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y37" s="32" t="e">
+        <f t="shared" ref="Y37" si="38">Y36/Y35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z37" s="32" t="e">
+        <f t="shared" ref="Z37" si="39">Z36/Z35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="14" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" s="12">
+        <v>1386</v>
+      </c>
+      <c r="V39" s="12">
+        <v>1869</v>
+      </c>
+      <c r="W39" s="12">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U40" s="12">
+        <v>554</v>
+      </c>
+      <c r="V40" s="12">
+        <v>690</v>
+      </c>
+      <c r="W40" s="12">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G41" s="32" t="e">
+        <f>G40/G39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="32" t="e">
+        <f t="shared" ref="H41" si="40">H40/H39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="32" t="e">
+        <f t="shared" ref="I41" si="41">I40/I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="32" t="e">
+        <f t="shared" ref="J41" si="42">J40/J39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="32" t="e">
+        <f t="shared" ref="K41" si="43">K40/K39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="32" t="e">
+        <f>L40/L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="32" t="e">
+        <f t="shared" ref="M41" si="44">M40/M39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="32" t="e">
+        <f t="shared" ref="N41" si="45">N40/N39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="32" t="e">
+        <f t="shared" ref="O41" si="46">O40/O39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="32" t="e">
+        <f t="shared" ref="P41" si="47">P40/P39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="32" t="e">
+        <f t="shared" ref="Q41" si="48">Q40/Q39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="32" t="e">
+        <f t="shared" ref="R41" si="49">R40/R39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="32" t="e">
+        <f t="shared" ref="S41" si="50">S40/S39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="32" t="e">
+        <f t="shared" ref="T41" si="51">T40/T39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="32">
+        <f t="shared" ref="U41" si="52">U40/U39</f>
+        <v>0.39971139971139968</v>
+      </c>
+      <c r="V41" s="32">
+        <f t="shared" ref="V41" si="53">V40/V39</f>
+        <v>0.36918138041733545</v>
+      </c>
+      <c r="W41" s="32">
+        <f>W40/W39</f>
+        <v>0.31938431938431938</v>
+      </c>
+      <c r="X41" s="32" t="e">
+        <f t="shared" ref="X41" si="54">X40/X39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="32" t="e">
+        <f t="shared" ref="Y41" si="55">Y40/Y39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" s="32" t="e">
+        <f t="shared" ref="Z41" si="56">Z40/Z39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="14" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="U43">
+        <v>347</v>
+      </c>
+      <c r="V43">
+        <v>469</v>
+      </c>
+      <c r="W43">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U44">
+        <v>76</v>
+      </c>
+      <c r="V44">
+        <v>-281</v>
+      </c>
+      <c r="W44">
+        <v>-482</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G45" s="32" t="e">
+        <f>G44/G43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="32" t="e">
+        <f t="shared" ref="H45" si="57">H44/H43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="32" t="e">
+        <f t="shared" ref="I45" si="58">I44/I43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="32" t="e">
+        <f t="shared" ref="J45" si="59">J44/J43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="32" t="e">
+        <f t="shared" ref="K45" si="60">K44/K43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="32" t="e">
+        <f>L44/L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="32" t="e">
+        <f t="shared" ref="M45" si="61">M44/M43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="32" t="e">
+        <f t="shared" ref="N45" si="62">N44/N43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="32" t="e">
+        <f t="shared" ref="O45" si="63">O44/O43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" s="32" t="e">
+        <f t="shared" ref="P45" si="64">P44/P43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="32" t="e">
+        <f t="shared" ref="Q45" si="65">Q44/Q43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="32" t="e">
+        <f t="shared" ref="R45" si="66">R44/R43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="32" t="e">
+        <f t="shared" ref="S45" si="67">S44/S43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="32" t="e">
+        <f t="shared" ref="T45" si="68">T44/T43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="32">
+        <f t="shared" ref="U45" si="69">U44/U43</f>
+        <v>0.21902017291066284</v>
+      </c>
+      <c r="V45" s="32">
+        <f t="shared" ref="V45" si="70">V44/V43</f>
+        <v>-0.59914712153518124</v>
+      </c>
+      <c r="W45" s="32">
+        <f>W44/W43</f>
+        <v>-0.50630252100840334</v>
+      </c>
+      <c r="X45" s="32" t="e">
+        <f t="shared" ref="X45" si="71">X44/X43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y45" s="32" t="e">
+        <f t="shared" ref="Y45" si="72">Y44/Y43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z45" s="32" t="e">
+        <f t="shared" ref="Z45" si="73">Z44/Z43</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U47" s="12">
+        <v>5771</v>
+      </c>
+      <c r="V47" s="12">
+        <v>1089</v>
+      </c>
+      <c r="W47" s="12">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="U48" s="12">
+        <v>-6008</v>
+      </c>
+      <c r="V48" s="12">
+        <v>-5977</v>
+      </c>
+      <c r="W48" s="12">
+        <v>-5597</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G49" s="32" t="e">
+        <f>G48/G47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="32" t="e">
+        <f t="shared" ref="H49" si="74">H48/H47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="32" t="e">
+        <f t="shared" ref="I49" si="75">I48/I47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" s="32" t="e">
+        <f t="shared" ref="J49" si="76">J48/J47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="32" t="e">
+        <f t="shared" ref="K49" si="77">K48/K47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="32" t="e">
+        <f>L48/L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="32" t="e">
+        <f t="shared" ref="M49" si="78">M48/M47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="32" t="e">
+        <f t="shared" ref="N49" si="79">N48/N47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" s="32" t="e">
+        <f t="shared" ref="O49" si="80">O48/O47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P49" s="32" t="e">
+        <f t="shared" ref="P49" si="81">P48/P47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q49" s="32" t="e">
+        <f t="shared" ref="Q49" si="82">Q48/Q47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R49" s="32" t="e">
+        <f t="shared" ref="R49" si="83">R48/R47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" s="32" t="e">
+        <f t="shared" ref="S49" si="84">S48/S47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" s="32" t="e">
+        <f t="shared" ref="T49" si="85">T48/T47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U49" s="32">
+        <f t="shared" ref="U49" si="86">U48/U47</f>
+        <v>-1.0410674059954947</v>
+      </c>
+      <c r="V49" s="32">
+        <f t="shared" ref="V49" si="87">V48/V47</f>
+        <v>-5.4885215794306701</v>
+      </c>
+      <c r="W49" s="32">
+        <f>W48/W47</f>
+        <v>-8.6909937888198758</v>
+      </c>
+      <c r="X49" s="32" t="e">
+        <f t="shared" ref="X49" si="88">X48/X47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y49" s="32" t="e">
+        <f t="shared" ref="Y49" si="89">Y48/Y47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z49" s="32" t="e">
+        <f t="shared" ref="Z49" si="90">Z48/Z47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="19">
+        <f>G27+G31+G35+G39+G43+G47</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" ref="H51:Z51" si="91">H27+H31+H35+H39+H43+H47</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="19">
+        <f t="shared" si="91"/>
+        <v>79024</v>
+      </c>
+      <c r="V51" s="19">
+        <f t="shared" si="91"/>
+        <v>63054</v>
+      </c>
+      <c r="W51" s="19">
+        <f t="shared" si="91"/>
+        <v>54228</v>
+      </c>
+      <c r="X51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="19">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="33" t="s">
+        <v>2725</v>
+      </c>
+      <c r="G52" s="34">
+        <f>G28+G32+G36+G40+G44+G48</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="34">
+        <f t="shared" ref="H52:Z52" si="92">H28+H32+H36+H40+H44+H48</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="34">
+        <f t="shared" si="92"/>
+        <v>19456</v>
+      </c>
+      <c r="V52" s="34">
+        <f t="shared" si="92"/>
+        <v>2334</v>
+      </c>
+      <c r="W52" s="34">
+        <f t="shared" si="92"/>
+        <v>93</v>
+      </c>
+      <c r="X52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="34">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="32" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G53" s="32" t="e">
+        <f>G52/G51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="32" t="e">
+        <f t="shared" ref="H53" si="93">H52/H51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="32" t="e">
+        <f t="shared" ref="I53" si="94">I52/I51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" s="32" t="e">
+        <f t="shared" ref="J53" si="95">J52/J51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="32" t="e">
+        <f t="shared" ref="K53" si="96">K52/K51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="32" t="e">
+        <f>L52/L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="32" t="e">
+        <f t="shared" ref="M53" si="97">M52/M51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" s="32" t="e">
+        <f t="shared" ref="N53" si="98">N52/N51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="32" t="e">
+        <f t="shared" ref="O53" si="99">O52/O51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P53" s="32" t="e">
+        <f t="shared" ref="P53" si="100">P52/P51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q53" s="32" t="e">
+        <f t="shared" ref="Q53" si="101">Q52/Q51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" s="32" t="e">
+        <f t="shared" ref="R53" si="102">R52/R51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53" s="32" t="e">
+        <f t="shared" ref="S53" si="103">S52/S51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" s="32" t="e">
+        <f t="shared" ref="T53" si="104">T52/T51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U53" s="32">
+        <f t="shared" ref="U53" si="105">U52/U51</f>
+        <v>0.24620368495646891</v>
+      </c>
+      <c r="V53" s="32">
+        <f t="shared" ref="V53" si="106">V52/V51</f>
+        <v>3.7015891140926828E-2</v>
+      </c>
+      <c r="W53" s="32">
+        <f>W52/W51</f>
+        <v>1.714981190528878E-3</v>
+      </c>
+      <c r="X53" s="32" t="e">
+        <f t="shared" ref="X53" si="107">X52/X51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y53" s="32" t="e">
+        <f t="shared" ref="Y53" si="108">Y52/Y51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z53" s="32" t="e">
+        <f t="shared" ref="Z53" si="109">Z52/Z51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="12" t="s">
+        <v>2732</v>
+      </c>
+      <c r="U56" s="12">
+        <v>22961</v>
+      </c>
+      <c r="V56" s="12">
+        <v>17125</v>
+      </c>
+      <c r="W56" s="12">
+        <v>14854</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="12" t="s">
+        <v>2733</v>
+      </c>
+      <c r="U57" s="12">
+        <v>18096</v>
+      </c>
+      <c r="V57" s="12">
+        <v>9664</v>
+      </c>
+      <c r="W57" s="12">
+        <v>8602</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="12" t="s">
+        <v>2734</v>
+      </c>
+      <c r="U58" s="12">
+        <v>14322</v>
+      </c>
+      <c r="V58" s="12">
+        <v>16529</v>
+      </c>
+      <c r="W58" s="12">
+        <v>13958</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="12" t="s">
+        <v>2735</v>
+      </c>
+      <c r="U59" s="12">
+        <v>11418</v>
+      </c>
+      <c r="V59" s="12">
+        <v>8287</v>
+      </c>
+      <c r="W59" s="12">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="17" t="s">
+        <v>2736</v>
+      </c>
+      <c r="U60" s="17">
+        <v>12227</v>
+      </c>
+      <c r="V60" s="17">
+        <v>11449</v>
+      </c>
+      <c r="W60" s="17">
+        <v>9947</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="19" t="s">
+        <v>2737</v>
+      </c>
+      <c r="G61" s="19">
+        <f>SUM(G56:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="19">
+        <f t="shared" ref="H61:V61" si="110">SUM(H56:H60)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="19">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="19">
+        <f t="shared" si="110"/>
+        <v>79024</v>
+      </c>
+      <c r="V61" s="19">
+        <f t="shared" si="110"/>
+        <v>63054</v>
+      </c>
+      <c r="W61" s="19">
+        <f>SUM(W56:W60)</f>
+        <v>54228</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B63" s="35" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>2732</v>
+      </c>
+      <c r="G64" s="32" t="e">
+        <f>G56/G$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="32" t="e">
+        <f t="shared" ref="H64:V64" si="111">H56/H$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" s="32" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U64" s="32">
+        <f t="shared" si="111"/>
+        <v>0.29055729904839034</v>
+      </c>
+      <c r="V64" s="32">
+        <f t="shared" si="111"/>
+        <v>0.27159260316554062</v>
+      </c>
+      <c r="W64" s="32">
+        <f>W56/W$61</f>
+        <v>0.27391753337759089</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G65" s="32" t="e">
+        <f>G57/G$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="32" t="e">
+        <f t="shared" ref="H65:V65" si="112">H57/H$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" s="32" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U65" s="32">
+        <f t="shared" si="112"/>
+        <v>0.22899372342579469</v>
+      </c>
+      <c r="V65" s="32">
+        <f t="shared" si="112"/>
+        <v>0.15326545500681954</v>
+      </c>
+      <c r="W65" s="32">
+        <f>W57/W$61</f>
+        <v>0.15862653979493987</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="32" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G66" s="32" t="e">
+        <f>G58/G$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="32" t="e">
+        <f t="shared" ref="H66:V66" si="113">H58/H$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T66" s="32" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U66" s="32">
+        <f t="shared" si="113"/>
+        <v>0.18123608017817372</v>
+      </c>
+      <c r="V66" s="32">
+        <f t="shared" si="113"/>
+        <v>0.26214038760427572</v>
+      </c>
+      <c r="W66" s="32">
+        <f>W58/W$61</f>
+        <v>0.25739470384303315</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="32" t="s">
+        <v>2735</v>
+      </c>
+      <c r="G67" s="32" t="e">
+        <f>G59/G$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" s="32" t="e">
+        <f t="shared" ref="H67:V67" si="114">H59/H$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T67" s="32" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U67" s="32">
+        <f t="shared" si="114"/>
+        <v>0.14448775055679286</v>
+      </c>
+      <c r="V67" s="32">
+        <f t="shared" si="114"/>
+        <v>0.13142703079899767</v>
+      </c>
+      <c r="W67" s="32">
+        <f>W59/W$61</f>
+        <v>0.12663199822969684</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="36" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G68" s="36" t="e">
+        <f>G60/G$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68" s="36" t="e">
+        <f t="shared" ref="H68:V68" si="115">H60/H$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T68" s="36" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U68" s="36">
+        <f t="shared" si="115"/>
+        <v>0.15472514679084834</v>
+      </c>
+      <c r="V68" s="36">
+        <f t="shared" si="115"/>
+        <v>0.18157452342436642</v>
+      </c>
+      <c r="W68" s="36">
+        <f>W60/W$61</f>
+        <v>0.18342922475473925</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="32" t="s">
+        <v>2739</v>
+      </c>
+      <c r="G69" s="32" t="e">
+        <f>SUM(G64:G68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" s="32" t="e">
+        <f t="shared" ref="H69:V69" si="116">SUM(H64:H68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T69" s="32" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U69" s="32">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="32">
+        <f t="shared" si="116"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W69" s="32">
+        <f>SUM(W64:W68)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="20" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="U71" s="19">
+        <v>79024</v>
+      </c>
+      <c r="V71" s="19">
+        <v>63054</v>
+      </c>
+      <c r="W71" s="19">
+        <v>54228</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="U72" s="17">
+        <v>35209</v>
+      </c>
+      <c r="V72" s="17">
+        <v>36188</v>
+      </c>
+      <c r="W72" s="17">
+        <v>32517</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="12">
+        <f>G71-G72</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="12">
+        <f t="shared" ref="H73:V73" si="117">H71-H72</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="12">
+        <f t="shared" si="117"/>
+        <v>43815</v>
+      </c>
+      <c r="V73" s="12">
+        <f t="shared" si="117"/>
+        <v>26866</v>
+      </c>
+      <c r="W73" s="12">
+        <f>W71-W72</f>
+        <v>21711</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="U74" s="12">
+        <v>15190</v>
+      </c>
+      <c r="V74" s="12">
+        <v>17528</v>
+      </c>
+      <c r="W74" s="12">
+        <v>16046</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="12" t="s">
+        <v>2716</v>
+      </c>
+      <c r="U75" s="12">
+        <v>6543</v>
+      </c>
+      <c r="V75" s="12">
+        <v>7002</v>
+      </c>
+      <c r="W75" s="12">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="17" t="s">
+        <v>2717</v>
+      </c>
+      <c r="U76" s="17">
+        <v>2626</v>
+      </c>
+      <c r="V76" s="17">
+        <v>2</v>
+      </c>
+      <c r="W76" s="17">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="17" t="s">
+        <v>2718</v>
+      </c>
+      <c r="G77" s="17">
+        <f>SUM(G74:G76)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="17">
+        <f t="shared" ref="H77:V77" si="118">SUM(H74:H76)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="17">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="17">
+        <f t="shared" si="118"/>
+        <v>24359</v>
+      </c>
+      <c r="V77" s="17">
+        <f t="shared" si="118"/>
+        <v>24532</v>
+      </c>
+      <c r="W77" s="17">
+        <f>SUM(W74:W76)</f>
+        <v>21618</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="12">
+        <f>G73-G77</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="12">
+        <f t="shared" ref="H78:V78" si="119">H73-H77</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="12">
+        <f t="shared" si="119"/>
+        <v>19456</v>
+      </c>
+      <c r="V78" s="12">
+        <f t="shared" si="119"/>
+        <v>2334</v>
+      </c>
+      <c r="W78" s="12">
+        <f>W73-W77</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="12" t="s">
+        <v>2719</v>
+      </c>
+      <c r="U79" s="12">
+        <v>2729</v>
+      </c>
+      <c r="V79" s="12">
+        <v>4268</v>
+      </c>
+      <c r="W79" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U80" s="17">
+        <v>-482</v>
+      </c>
+      <c r="V80" s="17">
+        <v>1166</v>
+      </c>
+      <c r="W80" s="17">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="12" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G81" s="12">
+        <f>SUM(G78:G80)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="12">
+        <f t="shared" ref="H81:V81" si="120">SUM(H78:H80)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="12">
+        <f t="shared" si="120"/>
+        <v>21703</v>
+      </c>
+      <c r="V81" s="12">
+        <f t="shared" si="120"/>
+        <v>7768</v>
+      </c>
+      <c r="W81" s="12">
+        <f>SUM(W78:W80)</f>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="17" t="s">
+        <v>2723</v>
+      </c>
+      <c r="U82" s="17">
+        <v>1835</v>
+      </c>
+      <c r="V82" s="17">
+        <v>-249</v>
+      </c>
+      <c r="W82" s="17">
+        <v>-913</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="12" t="s">
+        <v>2722</v>
+      </c>
+      <c r="G83" s="12">
+        <f>G81-G82</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="12">
+        <f t="shared" ref="H83:V83" si="121">H81-H82</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="12">
+        <f t="shared" si="121"/>
+        <v>19868</v>
+      </c>
+      <c r="V83" s="12">
+        <f t="shared" si="121"/>
+        <v>8017</v>
+      </c>
+      <c r="W83" s="12">
+        <f>W81-W82</f>
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="17" t="s">
+        <v>2721</v>
+      </c>
+      <c r="U84" s="17">
+        <v>0</v>
+      </c>
+      <c r="V84" s="17">
+        <v>3</v>
+      </c>
+      <c r="W84" s="17">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G85" s="12">
+        <f>SUM(G83:G84)</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" ref="H85:V85" si="122">SUM(H83:H84)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="12">
+        <f t="shared" si="122"/>
+        <v>19868</v>
+      </c>
+      <c r="V85" s="12">
+        <f t="shared" si="122"/>
+        <v>8020</v>
+      </c>
+      <c r="W85" s="12">
+        <f>SUM(W83:W84)</f>
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="31" t="e">
+        <f>G85/G89</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" s="31" t="e">
+        <f t="shared" ref="H87:V87" si="123">H85/H89</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T87" s="31" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U87" s="31">
+        <f t="shared" si="123"/>
+        <v>4.8948016752894805</v>
+      </c>
+      <c r="V87" s="31">
+        <f t="shared" si="123"/>
+        <v>1.9522882181110028</v>
+      </c>
+      <c r="W87" s="31">
+        <f>W85/W89</f>
+        <v>0.3964200477326969</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="31" t="e">
+        <f>G85/G90</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="31" t="e">
+        <f t="shared" ref="H88:V88" si="124">H85/H90</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" s="31" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U88" s="31">
+        <f t="shared" si="124"/>
+        <v>4.8577017114914423</v>
+      </c>
+      <c r="V88" s="31">
+        <f t="shared" si="124"/>
+        <v>1.9451855445064274</v>
+      </c>
+      <c r="W88" s="31">
+        <f>W85/W90</f>
+        <v>0.39434947768281103</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U89" s="12">
+        <v>4059</v>
+      </c>
+      <c r="V89" s="12">
+        <v>4108</v>
+      </c>
+      <c r="W89" s="12">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="U90" s="12">
+        <v>4090</v>
+      </c>
+      <c r="V90" s="12">
+        <v>4123</v>
+      </c>
+      <c r="W90" s="12">
+        <v>4212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
@@ -22489,7 +25943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL33"/>
   <sheetViews>
@@ -26022,7 +29476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
@@ -30672,7 +34126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
